--- a/results/tables_MHT_analysis.xlsx
+++ b/results/tables_MHT_analysis.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="0" windowWidth="24560" windowHeight="17220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hypertension Status" sheetId="3" r:id="rId1"/>
-    <sheet name="Demographic" sheetId="1" r:id="rId2"/>
-    <sheet name="Summary Stats-BP" sheetId="2" r:id="rId3"/>
-    <sheet name="KS test" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 1 - Hypertension Status" sheetId="3" r:id="rId1"/>
+    <sheet name="Table 2 - Demographic" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 3 - BP changes" sheetId="2" r:id="rId3"/>
+    <sheet name="Table 4 - KS test" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 5 - Forward Stepwise Reg" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 6 - Lasso GLM" sheetId="6" r:id="rId6"/>
+    <sheet name="Table 7 - Cluster" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Mostly in control</t>
   </si>
@@ -283,17 +286,197 @@
   </si>
   <si>
     <t>(ALL PATIENTS)</t>
+  </si>
+  <si>
+    <t>128.01±10.26</t>
+  </si>
+  <si>
+    <t>136.42±12.7</t>
+  </si>
+  <si>
+    <t>KS Statistic</t>
+  </si>
+  <si>
+    <t>P Value</t>
+  </si>
+  <si>
+    <t>MAP:</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>change_BMI</t>
+  </si>
+  <si>
+    <t>change_EGFR</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>SYSTOLIC_BEFORE</t>
+  </si>
+  <si>
+    <t>SYSTOLIC_AFTER</t>
+  </si>
+  <si>
+    <t>DIASTOLIC_BEFORE</t>
+  </si>
+  <si>
+    <t>DIASTOLIC_AFTER</t>
+  </si>
+  <si>
+    <t>MAP_BEFORE</t>
+  </si>
+  <si>
+    <t>MAP_AFTER</t>
+  </si>
+  <si>
+    <t>SYSTOLIC_CHANGE</t>
+  </si>
+  <si>
+    <t>DIASTOLIC_CHANGE</t>
+  </si>
+  <si>
+    <t>MAP_CHANGE</t>
+  </si>
+  <si>
+    <t>SYSTOLIC_KS</t>
+  </si>
+  <si>
+    <t>DIASTOLIC_KS</t>
+  </si>
+  <si>
+    <t>MAP_KS</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Statistics Criterion</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Null Deviance</t>
+  </si>
+  <si>
+    <t>Residual Deviance</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Binomial</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>HISPANIC</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>DIABETES</t>
+  </si>
+  <si>
+    <t>*HTN control status should be added as a covariate!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -356,8 +539,51 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +669,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -492,19 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -512,17 +742,6 @@
       <top style="double">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -539,114 +758,477 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="158">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -991,77 +1573,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>3818</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>2043</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>250</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>6111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>901</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>625</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>113</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>1639</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>202</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>67</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>15</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>284</v>
       </c>
     </row>
@@ -1080,7 +1662,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1119,10 +1701,10 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1130,10 +1712,10 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1723,10 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1152,17 +1734,17 @@
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1170,10 +1752,10 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1181,17 +1763,17 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:4" ht="30">
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1199,10 +1781,10 @@
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1210,21 +1792,21 @@
       <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30">
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1232,10 +1814,10 @@
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1251,596 +1833,519 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="16" style="8" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="8"/>
-    <col min="9" max="9" width="15.83203125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="16.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="33">
+      <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="28"/>
+      <c r="B2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="40" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="40" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1">
-      <c r="A4" s="41" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickTop="1">
+      <c r="A4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="42" t="s">
+      <c r="H4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="I4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>129.6198</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>128.01429999999999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="25">
         <v>-1.605553</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="20">
+        <v>129.6071</v>
+      </c>
+      <c r="F5" s="20">
+        <v>128.00219999999999</v>
+      </c>
+      <c r="G5" s="25">
+        <v>-1.6048830000000001</v>
+      </c>
+      <c r="H5" s="10">
+        <v>125.84650000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>125.6683</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-0.17821780000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10">
+        <v>74.772790000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>73.178370000000001</v>
+      </c>
+      <c r="D6" s="25">
+        <v>-1.5944210000000001</v>
+      </c>
+      <c r="E6" s="20">
+        <v>72.511650000000003</v>
+      </c>
+      <c r="F6" s="20">
+        <v>70.76249</v>
+      </c>
+      <c r="G6" s="25">
+        <v>-1.7491680000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>68.193070000000006</v>
+      </c>
+      <c r="I6" s="10">
+        <v>67.237620000000007</v>
+      </c>
+      <c r="J6" s="10">
+        <v>-0.95544549999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10">
+        <v>93.127899999999997</v>
+      </c>
+      <c r="C7" s="10">
+        <v>91.508949999999999</v>
+      </c>
+      <c r="D7" s="25">
+        <v>-1.618954</v>
+      </c>
+      <c r="E7" s="20">
+        <v>91.578620000000001</v>
+      </c>
+      <c r="F7" s="20">
+        <v>89.94247</v>
+      </c>
+      <c r="G7" s="25">
+        <v>-1.636145</v>
+      </c>
+      <c r="H7" s="10">
+        <v>87.69802</v>
+      </c>
+      <c r="I7" s="10">
+        <v>86.874589999999998</v>
+      </c>
+      <c r="J7" s="10">
+        <v>-0.82343230000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="27">
-        <v>129.6071</v>
-      </c>
-      <c r="G5" s="27">
-        <v>128.00219999999999</v>
-      </c>
-      <c r="H5" s="30">
-        <v>-1.6048830000000001</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="B10" s="10">
+        <v>137.99019999999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>136.42019999999999</v>
+      </c>
+      <c r="D10" s="25">
+        <v>-1.569995</v>
+      </c>
+      <c r="E10" s="20">
+        <v>137.4504</v>
+      </c>
+      <c r="F10" s="20">
+        <v>136.70160000000001</v>
+      </c>
+      <c r="G10" s="25">
+        <v>-0.74880000000000002</v>
+      </c>
+      <c r="H10" s="10">
+        <v>139.9254</v>
+      </c>
+      <c r="I10" s="10">
+        <v>140.06720000000001</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.141791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="10">
+        <v>79.881789999999995</v>
+      </c>
+      <c r="C11" s="10">
+        <v>78.17107</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-1.71072</v>
+      </c>
+      <c r="E11" s="20">
+        <v>77.063999999999993</v>
+      </c>
+      <c r="F11" s="20">
+        <v>75.818399999999997</v>
+      </c>
+      <c r="G11" s="25">
+        <v>-1.2456</v>
+      </c>
+      <c r="H11" s="10">
+        <v>73.977609999999999</v>
+      </c>
+      <c r="I11" s="10">
+        <v>72.104479999999995</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-1.8731340000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10">
+        <v>99.297520000000006</v>
+      </c>
+      <c r="C12" s="10">
+        <v>97.602220000000003</v>
+      </c>
+      <c r="D12" s="25">
+        <v>-1.6953009999999999</v>
+      </c>
+      <c r="E12" s="20">
+        <v>97.188000000000002</v>
+      </c>
+      <c r="F12" s="20">
+        <v>96.114930000000001</v>
+      </c>
+      <c r="G12" s="25">
+        <v>-1.073067</v>
+      </c>
+      <c r="H12" s="10">
+        <v>95.880600000000001</v>
+      </c>
+      <c r="I12" s="10">
+        <v>94.786069999999995</v>
+      </c>
+      <c r="J12" s="10">
+        <v>-1.094527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="9">
-        <v>125.84650000000001</v>
-      </c>
-      <c r="K5" s="9">
-        <v>125.6683</v>
-      </c>
-      <c r="L5" s="9">
-        <v>-0.17821780000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10" t="s">
+      <c r="B15" s="10">
+        <v>132.6139</v>
+      </c>
+      <c r="C15" s="10">
+        <v>131.02099999999999</v>
+      </c>
+      <c r="D15" s="25">
+        <v>-1.592865</v>
+      </c>
+      <c r="E15" s="20">
+        <v>132.91489999999999</v>
+      </c>
+      <c r="F15" s="20">
+        <v>131.6309</v>
+      </c>
+      <c r="G15" s="25">
+        <v>-1.2840149999999999</v>
+      </c>
+      <c r="H15" s="10">
+        <v>129.76759999999999</v>
+      </c>
+      <c r="I15" s="10">
+        <v>129.66370000000001</v>
+      </c>
+      <c r="J15" s="10">
+        <v>-0.1038732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9">
-        <v>74.772790000000001</v>
-      </c>
-      <c r="C6" s="9">
-        <v>73.178370000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-1.5944210000000001</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="27">
-        <v>72.511650000000003</v>
-      </c>
-      <c r="G6" s="27">
-        <v>70.76249</v>
-      </c>
-      <c r="H6" s="30">
-        <v>-1.7491680000000001</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="9">
-        <v>68.193070000000006</v>
-      </c>
-      <c r="K6" s="9">
-        <v>67.237620000000007</v>
-      </c>
-      <c r="L6" s="9">
-        <v>-0.95544549999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
+      <c r="B16" s="10">
+        <v>76.528720000000007</v>
+      </c>
+      <c r="C16" s="10">
+        <v>74.870890000000003</v>
+      </c>
+      <c r="D16" s="25">
+        <v>-1.6578299999999999</v>
+      </c>
+      <c r="E16" s="20">
+        <v>74.398110000000003</v>
+      </c>
+      <c r="F16" s="20">
+        <v>72.790729999999996</v>
+      </c>
+      <c r="G16" s="25">
+        <v>-1.607383</v>
+      </c>
+      <c r="H16" s="10">
+        <v>69.721829999999997</v>
+      </c>
+      <c r="I16" s="10">
+        <v>68.48415</v>
+      </c>
+      <c r="J16" s="10">
+        <v>-1.237676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9">
-        <v>93.127899999999997</v>
-      </c>
-      <c r="C7" s="9">
-        <v>91.508949999999999</v>
-      </c>
-      <c r="D7" s="9">
-        <v>-1.618954</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="27">
-        <v>91.578620000000001</v>
-      </c>
-      <c r="G7" s="27">
-        <v>89.94247</v>
-      </c>
-      <c r="H7" s="30">
-        <v>-1.636145</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="9">
-        <v>87.69802</v>
-      </c>
-      <c r="K7" s="9">
-        <v>86.874589999999998</v>
-      </c>
-      <c r="L7" s="9">
-        <v>-0.82343230000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="9">
-        <v>137.99019999999999</v>
-      </c>
-      <c r="C10" s="9">
-        <v>136.42019999999999</v>
-      </c>
-      <c r="D10" s="9">
-        <v>-1.569995</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="27">
-        <v>137.4504</v>
-      </c>
-      <c r="G10" s="27">
-        <v>136.70160000000001</v>
-      </c>
-      <c r="H10" s="30">
-        <v>-0.74880000000000002</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="9">
-        <v>139.9254</v>
-      </c>
-      <c r="K10" s="9">
-        <v>140.06720000000001</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.141791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="9">
-        <v>79.881789999999995</v>
-      </c>
-      <c r="C11" s="9">
-        <v>78.17107</v>
-      </c>
-      <c r="D11" s="9">
-        <v>-1.71072</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="27">
-        <v>77.063999999999993</v>
-      </c>
-      <c r="G11" s="27">
-        <v>75.818399999999997</v>
-      </c>
-      <c r="H11" s="30">
-        <v>-1.2456</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="9">
-        <v>73.977609999999999</v>
-      </c>
-      <c r="K11" s="9">
-        <v>72.104479999999995</v>
-      </c>
-      <c r="L11" s="9">
-        <v>-1.8731340000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="9">
-        <v>99.297520000000006</v>
-      </c>
-      <c r="C12" s="9">
-        <v>97.602220000000003</v>
-      </c>
-      <c r="D12" s="9">
-        <v>-1.6953009999999999</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="27">
-        <v>97.188000000000002</v>
-      </c>
-      <c r="G12" s="27">
-        <v>96.114930000000001</v>
-      </c>
-      <c r="H12" s="30">
-        <v>-1.073067</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="9">
-        <v>95.880600000000001</v>
-      </c>
-      <c r="K12" s="9">
-        <v>94.786069999999995</v>
-      </c>
-      <c r="L12" s="9">
-        <v>-1.094527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="9">
-        <v>132.6139</v>
-      </c>
-      <c r="C15" s="9">
-        <v>131.02099999999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>-1.592865</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="27">
-        <v>132.91489999999999</v>
-      </c>
-      <c r="G15" s="27">
-        <v>131.6309</v>
-      </c>
-      <c r="H15" s="30">
-        <v>-1.2840149999999999</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="9">
-        <v>129.76759999999999</v>
-      </c>
-      <c r="K15" s="9">
-        <v>129.66370000000001</v>
-      </c>
-      <c r="L15" s="9">
-        <v>-0.1038732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9">
-        <v>76.528720000000007</v>
-      </c>
-      <c r="C16" s="9">
-        <v>74.870890000000003</v>
-      </c>
-      <c r="D16" s="9">
-        <v>-1.6578299999999999</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="27">
-        <v>74.398110000000003</v>
-      </c>
-      <c r="G16" s="27">
-        <v>72.790729999999996</v>
-      </c>
-      <c r="H16" s="30">
-        <v>-1.607383</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="9">
-        <v>69.721829999999997</v>
-      </c>
-      <c r="K16" s="9">
-        <v>68.48415</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-1.237676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>95.296570000000003</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>93.623980000000003</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="25">
         <v>-1.672585</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="20">
         <v>93.941220000000001</v>
       </c>
-      <c r="G17" s="27">
+      <c r="F17" s="20">
         <v>92.452719999999999</v>
       </c>
-      <c r="H17" s="30">
+      <c r="G17" s="25">
         <v>-1.4885090000000001</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="H17" s="10">
         <v>89.946010000000001</v>
       </c>
-      <c r="K17" s="9">
+      <c r="I17" s="10">
         <v>88.987089999999995</v>
       </c>
-      <c r="L17" s="9">
+      <c r="J17" s="10">
         <v>-0.9589202</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="33">
-      <c r="A20" s="14" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="23"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21" s="10" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="10" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="D22" s="13"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="12" t="s">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickTop="1">
+      <c r="A23" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1849,157 +2354,133 @@
       <c r="C23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="19" t="s">
         <v>50</v>
       </c>
+      <c r="F23" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="J23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="10" t="s">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="27">
+      <c r="E24" s="20">
         <v>10.7363</v>
       </c>
-      <c r="G24" s="27">
+      <c r="F24" s="20">
         <v>10.19027</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="H24" s="10">
         <v>12.647489999999999</v>
       </c>
-      <c r="K24" s="9">
+      <c r="I24" s="10">
         <v>11.580730000000001</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>8.4</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="27">
+      <c r="E25" s="20">
         <v>7.9388730000000001</v>
       </c>
-      <c r="G25" s="27">
+      <c r="F25" s="20">
         <v>8.0363179999999996</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="H25" s="10">
         <v>7.8226519999999997</v>
       </c>
-      <c r="K25" s="9">
+      <c r="I25" s="10">
         <v>8.4804700000000004</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>7.8</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>7.5</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="27">
+      <c r="E26" s="20">
         <v>7.3775570000000004</v>
       </c>
-      <c r="G26" s="27">
+      <c r="F26" s="20">
         <v>7.0266679999999999</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="H26" s="10">
         <v>7.9131270000000002</v>
       </c>
-      <c r="K26" s="9">
+      <c r="I26" s="10">
         <v>7.764087</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="12" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -2008,157 +2489,133 @@
       <c r="C28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="19" t="s">
         <v>50</v>
       </c>
+      <c r="F28" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="G28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="J28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="10" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>16.2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>12.7</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="27">
+      <c r="E29" s="20">
         <v>12.1098</v>
       </c>
-      <c r="G29" s="27">
+      <c r="F29" s="20">
         <v>11.83863</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="H29" s="10">
         <v>12.53185</v>
       </c>
-      <c r="K29" s="9">
+      <c r="I29" s="10">
         <v>11.902670000000001</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>9.5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="27">
+      <c r="E30" s="20">
         <v>8.9227849999999993</v>
       </c>
-      <c r="G30" s="27">
+      <c r="F30" s="20">
         <v>8.7477230000000006</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="G30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="H30" s="10">
         <v>9.8908559999999994</v>
       </c>
-      <c r="K30" s="9">
+      <c r="I30" s="10">
         <v>9.7745560000000005</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>9.6</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>8.6</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="E31" s="20">
         <v>8.2608759999999997</v>
       </c>
-      <c r="G31" s="27">
+      <c r="F31" s="20">
         <v>7.8680180000000002</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="H31" s="10">
         <v>8.3470999999999993</v>
       </c>
-      <c r="K31" s="9">
+      <c r="I31" s="10">
         <v>7.9554109999999998</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="12" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2167,145 +2624,121 @@
       <c r="C33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="24" t="s">
+      <c r="E33" s="19" t="s">
         <v>50</v>
       </c>
+      <c r="F33" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="G33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="J33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="10" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>13.5</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>11.8</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="27">
+      <c r="E34" s="20">
         <v>11.795489999999999</v>
       </c>
-      <c r="G34" s="27">
+      <c r="F34" s="20">
         <v>11.62946</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="H34" s="10">
         <v>13.85407</v>
       </c>
-      <c r="K34" s="9">
+      <c r="I34" s="10">
         <v>13.111319999999999</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>9</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>9</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="E35" s="20">
         <v>8.5552139999999994</v>
       </c>
-      <c r="G35" s="27">
+      <c r="F35" s="20">
         <v>8.694858</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="H35" s="10">
         <v>8.6419809999999995</v>
       </c>
-      <c r="K35" s="9">
+      <c r="I35" s="10">
         <v>9.1922300000000003</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>8.9</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="27">
+      <c r="E36" s="20">
         <v>8.1182859999999994</v>
       </c>
-      <c r="G36" s="27">
+      <c r="F36" s="20">
         <v>7.9018350000000002</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="H36" s="10">
         <v>8.6362050000000004</v>
       </c>
-      <c r="K36" s="9">
+      <c r="I36" s="10">
         <v>8.5048209999999997</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2321,6 +2754,1453 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="55"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1">
+      <c r="B2" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickTop="1">
+      <c r="A3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="44">
+        <v>6.3383970665299993E-2</v>
+      </c>
+      <c r="C5" s="45">
+        <v>3.9995312688100002E-7</v>
+      </c>
+      <c r="D5" s="62">
+        <v>9.1009988901200004E-2</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1.05105460178E-3</v>
+      </c>
+      <c r="F5" s="38">
+        <v>5.9405940594100003E-2</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.85786216257799996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="44">
+        <v>9.0885280251399997E-2</v>
+      </c>
+      <c r="C6" s="45">
+        <v>3.3703969532899999E-14</v>
+      </c>
+      <c r="D6" s="62">
+        <v>9.8779134295199994E-2</v>
+      </c>
+      <c r="E6" s="45">
+        <v>2.7404937164700002E-4</v>
+      </c>
+      <c r="F6" s="38">
+        <v>8.9108910891099999E-2</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.38286399492200002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="44">
+        <v>9.2718700890499994E-2</v>
+      </c>
+      <c r="C7" s="45">
+        <v>9.2550541550600004E-15</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0.120976692564</v>
+      </c>
+      <c r="E7" s="45">
+        <v>3.2097564208699999E-6</v>
+      </c>
+      <c r="F7" s="38">
+        <v>7.9207920792099998E-2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.53376284313099998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="44">
+        <v>6.3142437591799994E-2</v>
+      </c>
+      <c r="C9" s="45">
+        <v>5.4470398456300004E-4</v>
+      </c>
+      <c r="D9" s="62">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0.21655310718699999</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.119402985075</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.69839441737700003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="44">
+        <v>7.7826725403800007E-2</v>
+      </c>
+      <c r="C10" s="45">
+        <v>7.6785970827499992E-6</v>
+      </c>
+      <c r="D10" s="62">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.21655310718699999</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.16417910447799999</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.29998425221000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="44">
+        <v>7.4889867841400004E-2</v>
+      </c>
+      <c r="C11" s="45">
+        <v>1.9333282277999999E-5</v>
+      </c>
+      <c r="D11" s="62">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="E11" s="48">
+        <v>4.7544096626499999E-2</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.13432835820899999</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.550412608739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickTop="1">
+      <c r="A2" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>4.8739999999999999E-3</v>
+      </c>
+      <c r="C2" s="43">
+        <v>-1.874E-3</v>
+      </c>
+      <c r="D2">
+        <v>-1.003E-3</v>
+      </c>
+      <c r="E2" s="43">
+        <v>5.6219999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.883E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.4780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>4.7947999999999998E-2</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43">
+        <v>3.3841999999999997E-2</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3">
+        <v>3.4840000000000003E-2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="I3" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="84">
+        <v>-1.9078999999999999E-2</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6">
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.3160000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.7109999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>3.8323999999999997E-2</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10">
+        <v>-5.3740000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>-6.8760000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>-5.8959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
+        <v>1.8835000000000001E-2</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>-2.0889999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>-2.7470000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <v>4.6279000000000001E-2</v>
+      </c>
+      <c r="D12" s="43">
+        <v>5.1270000000000003E-2</v>
+      </c>
+      <c r="E12" s="43">
+        <v>-4.8160000000000001E-2</v>
+      </c>
+      <c r="F12" s="43">
+        <v>-5.7180000000000002E-2</v>
+      </c>
+      <c r="G12" s="43">
+        <v>-5.4429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1">
+      <c r="A14" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64">
+        <v>3.3169999999999998E-2</v>
+      </c>
+      <c r="F14" s="64">
+        <v>5.5109999999999999E-2</v>
+      </c>
+      <c r="G14" s="64">
+        <v>5.3289999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickTop="1">
+      <c r="A15" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="43">
+        <v>4916</v>
+      </c>
+      <c r="C16" s="43">
+        <v>4916</v>
+      </c>
+      <c r="D16" s="43">
+        <v>4916</v>
+      </c>
+      <c r="E16" s="43">
+        <v>4916</v>
+      </c>
+      <c r="F16" s="43">
+        <v>4916</v>
+      </c>
+      <c r="G16" s="43">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="43">
+        <v>4993</v>
+      </c>
+      <c r="C17" s="43">
+        <v>4538</v>
+      </c>
+      <c r="D17" s="43">
+        <v>4681</v>
+      </c>
+      <c r="E17" s="43">
+        <v>5598</v>
+      </c>
+      <c r="F17" s="43">
+        <v>5609</v>
+      </c>
+      <c r="G17" s="43">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="43">
+        <v>4974</v>
+      </c>
+      <c r="C18" s="43">
+        <v>4523</v>
+      </c>
+      <c r="D18" s="43">
+        <v>4663</v>
+      </c>
+      <c r="E18" s="43">
+        <v>5556</v>
+      </c>
+      <c r="F18" s="43">
+        <v>5536</v>
+      </c>
+      <c r="G18" s="43">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1">
+      <c r="A19" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="64">
+        <v>14020</v>
+      </c>
+      <c r="C19" s="64">
+        <v>13550</v>
+      </c>
+      <c r="D19" s="64">
+        <v>13700</v>
+      </c>
+      <c r="E19" s="64">
+        <v>14570</v>
+      </c>
+      <c r="F19" s="64">
+        <v>14550</v>
+      </c>
+      <c r="G19" s="64">
+        <v>14560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickTop="1"/>
+    <row r="22" spans="1:7">
+      <c r="B22" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="79"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" thickBot="1">
+      <c r="B24" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickTop="1">
+      <c r="B25" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="43"/>
+      <c r="C32" s="63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="43"/>
+      <c r="C33" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="43"/>
+      <c r="C34" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="43"/>
+      <c r="C35" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7"/>
+      <c r="B1" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickTop="1">
+      <c r="A3" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="86">
+        <v>-4.9945209999999998</v>
+      </c>
+      <c r="C3" s="86">
+        <v>-3.8095889999999999</v>
+      </c>
+      <c r="D3" s="86">
+        <v>-4.3214730000000001</v>
+      </c>
+      <c r="E3" s="86">
+        <v>-0.8127645</v>
+      </c>
+      <c r="F3" s="86">
+        <v>-1.3668345266999999</v>
+      </c>
+      <c r="G3" s="86">
+        <v>-1.0694585656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="86">
+        <v>4.3748700000000001E-2</v>
+      </c>
+      <c r="C4" s="86">
+        <v>1.370908E-2</v>
+      </c>
+      <c r="D4" s="86">
+        <v>2.56317E-2</v>
+      </c>
+      <c r="E4" s="86">
+        <v>-4.1233069999999997E-3</v>
+      </c>
+      <c r="F4" s="86">
+        <v>6.7271511999999999E-3</v>
+      </c>
+      <c r="G4" s="86">
+        <v>1.6209416000000001E-3</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="86">
+        <v>-3.5516840000000001E-2</v>
+      </c>
+      <c r="C5" s="86">
+        <v>0.20527090000000001</v>
+      </c>
+      <c r="D5" s="86">
+        <v>0.15973090000000001</v>
+      </c>
+      <c r="E5" s="86">
+        <v>4.6960519999999999E-2</v>
+      </c>
+      <c r="F5" s="86">
+        <v>1.8445919200000001E-2</v>
+      </c>
+      <c r="G5" s="86">
+        <v>-9.9077469999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
+      <c r="A6" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="89">
+        <v>-1.8546119999999999E-2</v>
+      </c>
+      <c r="C6" s="86">
+        <v>1.139911E-2</v>
+      </c>
+      <c r="D6" s="86">
+        <v>6.9840500000000003E-4</v>
+      </c>
+      <c r="E6" s="86">
+        <v>-3.0026330000000002E-3</v>
+      </c>
+      <c r="F6" s="86">
+        <v>-3.1950835599999998E-2</v>
+      </c>
+      <c r="G6" s="86">
+        <v>-2.9960565099999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="86">
+        <v>-5.9037219999999999E-4</v>
+      </c>
+      <c r="C7" s="86">
+        <v>0.14997849999999999</v>
+      </c>
+      <c r="D7" s="86">
+        <v>8.0842570000000002E-2</v>
+      </c>
+      <c r="E7" s="89">
+        <v>-0.11112760000000001</v>
+      </c>
+      <c r="F7" s="89">
+        <v>-7.8166038500000007E-2</v>
+      </c>
+      <c r="G7" s="89">
+        <v>-8.28858388E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="86">
+        <v>8.8235739999999996E-5</v>
+      </c>
+      <c r="C8" s="86">
+        <v>2.805174E-6</v>
+      </c>
+      <c r="D8" s="86">
+        <v>4.6872680000000001E-5</v>
+      </c>
+      <c r="E8" s="86">
+        <v>7.1510240000000001E-5</v>
+      </c>
+      <c r="F8" s="86">
+        <v>-1.101758E-4</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="86">
+        <v>2.9342209999999998E-4</v>
+      </c>
+      <c r="C9" s="86">
+        <v>3.061653E-4</v>
+      </c>
+      <c r="D9" s="86">
+        <v>2.7280449999999998E-4</v>
+      </c>
+      <c r="E9" s="86">
+        <v>-2.720391E-4</v>
+      </c>
+      <c r="F9" s="86">
+        <v>-1.8460460000000001E-4</v>
+      </c>
+      <c r="G9" s="86">
+        <v>-2.4655180000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="86">
+        <v>8.5908400000000006E-3</v>
+      </c>
+      <c r="C10" s="86">
+        <v>7.360452E-3</v>
+      </c>
+      <c r="D10" s="86">
+        <v>7.0881970000000001E-3</v>
+      </c>
+      <c r="E10" s="86">
+        <v>-6.9569949999999997E-3</v>
+      </c>
+      <c r="F10" s="86">
+        <v>-7.4978273E-3</v>
+      </c>
+      <c r="G10" s="86">
+        <v>-5.6908897999999996E-3</v>
+      </c>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="86">
+        <v>3.7884939999999999E-2</v>
+      </c>
+      <c r="C11" s="86">
+        <v>2.1583189999999999E-2</v>
+      </c>
+      <c r="D11" s="86">
+        <v>2.557829E-2</v>
+      </c>
+      <c r="E11" s="86">
+        <v>-6.1165059999999999E-3</v>
+      </c>
+      <c r="F11" s="86">
+        <v>-6.8701355999999996E-3</v>
+      </c>
+      <c r="G11" s="86">
+        <v>-5.9156723E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
+      <c r="A12" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="86">
+        <v>0.36767040000000001</v>
+      </c>
+      <c r="C12" s="86">
+        <v>4.654113E-2</v>
+      </c>
+      <c r="D12" s="86">
+        <v>0.1654032</v>
+      </c>
+      <c r="E12" s="86">
+        <v>6.7086930000000003E-2</v>
+      </c>
+      <c r="F12" s="86">
+        <v>5.5710264000000002E-2</v>
+      </c>
+      <c r="G12" s="86">
+        <v>5.3660634899999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1">
+      <c r="A13" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="88">
+        <v>0.82319549999999997</v>
+      </c>
+      <c r="C13" s="88">
+        <v>0.2436306</v>
+      </c>
+      <c r="D13" s="88">
+        <v>0.29728719999999997</v>
+      </c>
+      <c r="E13" s="88">
+        <v>0.3480472</v>
+      </c>
+      <c r="F13" s="88">
+        <v>0.50576713169999998</v>
+      </c>
+      <c r="G13" s="88">
+        <v>0.49762870510000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickTop="1">
+      <c r="A14" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="65"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="65"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" thickBot="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" thickTop="1"/>
+    <row r="20" spans="1:7">
+      <c r="B20" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="79"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickBot="1">
+      <c r="B22" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" thickTop="1">
+      <c r="B23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="43"/>
+      <c r="C30" s="63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="43"/>
+      <c r="C31" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="43"/>
+      <c r="C32" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="43"/>
+      <c r="C33" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/results/tables_MHT_analysis.xlsx
+++ b/results/tables_MHT_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="4"/>
+    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Hypertension Status" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
   <si>
     <t>Mostly in control</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>*HTN control status should be added as a covariate!</t>
+  </si>
+  <si>
+    <t>*Statistically significant</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1015,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1071,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="158">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1858,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="49"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="27" t="s">
         <v>74</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="50"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="31" t="s">
         <v>84</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickTop="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -2024,7 +2027,7 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -2159,7 +2162,7 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -2306,7 +2309,7 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="33">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="21"/>
@@ -2320,7 +2323,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="27" t="s">
         <v>74</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="A22" s="30"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
@@ -2755,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2766,46 +2769,46 @@
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="55"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1">
+      <c r="B2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickTop="1">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" thickTop="1">
       <c r="A3" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="46"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="40"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="41" t="s">
         <v>72</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="C4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="42" t="s">
@@ -2828,20 +2831,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="44">
         <v>6.3383970665299993E-2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="89">
         <v>3.9995312688100002E-7</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>9.1009988901200004E-2</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="89">
         <v>1.05105460178E-3</v>
       </c>
       <c r="F5" s="38">
@@ -2850,21 +2853,24 @@
       <c r="G5" s="38">
         <v>0.85786216257799996</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="44">
         <v>9.0885280251399997E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="89">
         <v>3.3703969532899999E-14</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>9.8779134295199994E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="89">
         <v>2.7404937164700002E-4</v>
       </c>
       <c r="F6" s="38">
@@ -2874,20 +2880,20 @@
         <v>0.38286399492200002</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="43" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="44">
         <v>9.2718700890499994E-2</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="89">
         <v>9.2550541550600004E-15</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <v>0.120976692564</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="89">
         <v>3.2097564208699999E-6</v>
       </c>
       <c r="F7" s="38">
@@ -2897,7 +2903,7 @@
         <v>0.53376284313099998</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="41" t="s">
         <v>61</v>
       </c>
@@ -2907,7 +2913,7 @@
       <c r="C8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="42" t="s">
@@ -2920,20 +2926,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="44">
         <v>6.3142437591799994E-2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="89">
         <v>5.4470398456300004E-4</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="61">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <v>0.21655310718699999</v>
       </c>
       <c r="F9" s="38">
@@ -2943,20 +2949,20 @@
         <v>0.69839441737700003</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="44">
         <v>7.7826725403800007E-2</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="89">
         <v>7.6785970827499992E-6</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <v>0.21655310718699999</v>
       </c>
       <c r="F10" s="38">
@@ -2966,20 +2972,20 @@
         <v>0.29998425221000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="43" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="44">
         <v>7.4889867841400004E-2</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="89">
         <v>1.9333282277999999E-5</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <v>4.7544096626499999E-2</v>
       </c>
       <c r="F11" s="38">
@@ -3003,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3019,28 +3025,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" thickTop="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>126</v>
       </c>
       <c r="B2">
@@ -3063,7 +3069,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>97</v>
       </c>
       <c r="B3">
@@ -3078,12 +3084,12 @@
         <v>3.4840000000000003E-2</v>
       </c>
       <c r="G3" s="43"/>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="86" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="43"/>
@@ -3094,7 +3100,7 @@
       <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="43"/>
@@ -3105,11 +3111,11 @@
       <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="84">
+      <c r="C6" s="83">
         <v>-1.9078999999999999E-2</v>
       </c>
       <c r="D6" s="43"/>
@@ -3124,7 +3130,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="73" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="43"/>
@@ -3135,7 +3141,7 @@
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="73" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="43"/>
@@ -3146,7 +3152,7 @@
       <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="73" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="43"/>
@@ -3154,7 +3160,7 @@
       <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>93</v>
       </c>
       <c r="B10">
@@ -3173,7 +3179,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="73" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="43"/>
@@ -3192,7 +3198,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="43"/>
@@ -3213,7 +3219,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="43"/>
@@ -3224,35 +3230,35 @@
       <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="16" thickBot="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63">
         <v>3.3169999999999998E-2</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <v>5.5109999999999999E-2</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <v>5.3289999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" thickTop="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="43">
@@ -3275,7 +3281,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="43">
@@ -3298,7 +3304,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="43">
@@ -3321,56 +3327,56 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="63">
         <v>14020</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>13550</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>13700</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>14570</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>14550</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="63">
         <v>14560</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" thickTop="1"/>
     <row r="22" spans="1:7">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="77" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:7" ht="16" thickBot="1">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="81" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3378,7 +3384,7 @@
       <c r="B25" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>110</v>
       </c>
       <c r="D25" t="s">
@@ -3392,7 +3398,7 @@
       <c r="B26" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>92</v>
       </c>
       <c r="D26" t="s">
@@ -3406,7 +3412,7 @@
       <c r="B27" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D27" t="s">
@@ -3420,7 +3426,7 @@
       <c r="B28" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3428,7 +3434,7 @@
       <c r="B29" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3436,7 +3442,7 @@
       <c r="B30" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3444,31 +3450,31 @@
       <c r="B31" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="43"/>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="43"/>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="43"/>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="43"/>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3504,316 +3510,316 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" thickTop="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="85">
         <v>-4.9945209999999998</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="85">
         <v>-3.8095889999999999</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="85">
         <v>-4.3214730000000001</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="85">
         <v>-0.8127645</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="85">
         <v>-1.3668345266999999</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="85">
         <v>-1.0694585656</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="85">
         <v>4.3748700000000001E-2</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="85">
         <v>1.370908E-2</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="85">
         <v>2.56317E-2</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="85">
         <v>-4.1233069999999997E-3</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="85">
         <v>6.7271511999999999E-3</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="85">
         <v>1.6209416000000001E-3</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="86" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="85">
         <v>-3.5516840000000001E-2</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="85">
         <v>0.20527090000000001</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="85">
         <v>0.15973090000000001</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="85">
         <v>4.6960519999999999E-2</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="85">
         <v>1.8445919200000001E-2</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>-9.9077469999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="89">
+      <c r="B6" s="88">
         <v>-1.8546119999999999E-2</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="85">
         <v>1.139911E-2</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="85">
         <v>6.9840500000000003E-4</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="85">
         <v>-3.0026330000000002E-3</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="85">
         <v>-3.1950835599999998E-2</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>-2.9960565099999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="85">
         <v>-5.9037219999999999E-4</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="85">
         <v>0.14997849999999999</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>8.0842570000000002E-2</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="88">
         <v>-0.11112760000000001</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="88">
         <v>-7.8166038500000007E-2</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="88">
         <v>-8.28858388E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="85">
         <v>8.8235739999999996E-5</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="85">
         <v>2.805174E-6</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="85">
         <v>4.6872680000000001E-5</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="85">
         <v>7.1510240000000001E-5</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="85">
         <v>-1.101758E-4</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="85" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="85">
         <v>2.9342209999999998E-4</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="85">
         <v>3.061653E-4</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="85">
         <v>2.7280449999999998E-4</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="85">
         <v>-2.720391E-4</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="85">
         <v>-1.8460460000000001E-4</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>-2.4655180000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="85">
         <v>8.5908400000000006E-3</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="85">
         <v>7.360452E-3</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="85">
         <v>7.0881970000000001E-3</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="85">
         <v>-6.9569949999999997E-3</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="85">
         <v>-7.4978273E-3</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>-5.6908897999999996E-3</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="85">
         <v>3.7884939999999999E-2</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="85">
         <v>2.1583189999999999E-2</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="85">
         <v>2.557829E-2</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>-6.1165059999999999E-3</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="85">
         <v>-6.8701355999999996E-3</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="85">
         <v>-5.9156723E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="85">
         <v>0.36767040000000001</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="85">
         <v>4.654113E-2</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="85">
         <v>0.1654032</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>6.7086930000000003E-2</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <v>5.5710264000000002E-2</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>5.3660634899999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="87">
         <v>0.82319549999999997</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="87">
         <v>0.2436306</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="87">
         <v>0.29728719999999997</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <v>0.3480472</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="87">
         <v>0.50576713169999998</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="87">
         <v>0.49762870510000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" thickTop="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="65"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -3822,7 +3828,7 @@
       <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="65"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -3831,42 +3837,42 @@
       <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="16" thickTop="1"/>
     <row r="20" spans="1:7">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="77"/>
+      <c r="D20" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="79"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
     </row>
     <row r="22" spans="1:7" ht="16" thickBot="1">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="81" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3874,7 +3880,7 @@
       <c r="B23" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>110</v>
       </c>
       <c r="D23" t="s">
@@ -3888,7 +3894,7 @@
       <c r="B24" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>92</v>
       </c>
       <c r="D24" t="s">
@@ -3902,7 +3908,7 @@
       <c r="B25" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D25" t="s">
@@ -3916,7 +3922,7 @@
       <c r="B26" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3924,7 +3930,7 @@
       <c r="B27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3932,7 +3938,7 @@
       <c r="B28" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3940,254 +3946,254 @@
       <c r="B29" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="43"/>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="43"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="43"/>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="43"/>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/tables_MHT_analysis.xlsx
+++ b/results/tables_MHT_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="3"/>
+    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Hypertension Status" sheetId="3" r:id="rId1"/>
@@ -931,7 +931,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1072,6 +1072,9 @@
     <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2760,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2985,7 +2988,7 @@
       <c r="D11" s="61">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="90">
         <v>4.7544096626499999E-2</v>
       </c>
       <c r="F11" s="38">
@@ -3010,7 +3013,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3493,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/results/tables_MHT_analysis.xlsx
+++ b/results/tables_MHT_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1140" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="5"/>
+    <workbookView xWindow="5240" yWindow="920" windowWidth="27300" windowHeight="17900" tabRatio="822" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Hypertension Status" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
   <si>
     <t>Mostly in control</t>
   </si>
@@ -451,6 +451,129 @@
   </si>
   <si>
     <t>*Statistically significant</t>
+  </si>
+  <si>
+    <t>Mclust library in R</t>
+  </si>
+  <si>
+    <t>1. Bayesian information criteria: estimates number of clusters</t>
+  </si>
+  <si>
+    <t>2. hierarchical clustering --&gt; cluster</t>
+  </si>
+  <si>
+    <t>3. expectation maximization (using maximum likelyhood): Gaussian Mixture model; using the cluster from hierarchical clustering</t>
+  </si>
+  <si>
+    <t>MAP significantly lower</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>MAP NOT significantly lower</t>
+  </si>
+  <si>
+    <t>ind_from_stepwiseReg</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>c("CHF",</t>
+  </si>
+  <si>
+    <t>X280.285.99,</t>
+  </si>
+  <si>
+    <t>X792.792.99,</t>
+  </si>
+  <si>
+    <t>change_EGFR,</t>
+  </si>
+  <si>
+    <t>X0,</t>
+  </si>
+  <si>
+    <t>X211.211.99,</t>
+  </si>
+  <si>
+    <t>X65.71.99,</t>
+  </si>
+  <si>
+    <t>X430.438.99,</t>
+  </si>
+  <si>
+    <t>change_BMI,</t>
+  </si>
+  <si>
+    <t>X150.159.99,</t>
+  </si>
+  <si>
+    <t>X270.270.99,</t>
+  </si>
+  <si>
+    <t>X239.239.99,</t>
+  </si>
+  <si>
+    <t>X680.686.99,</t>
+  </si>
+  <si>
+    <t>X238.238.99,</t>
+  </si>
+  <si>
+    <t>BMI,</t>
+  </si>
+  <si>
+    <t>X271.271.99,</t>
+  </si>
+  <si>
+    <t>X060.066.99,</t>
+  </si>
+  <si>
+    <t>X210.229.99,</t>
+  </si>
+  <si>
+    <t>X520.529.99,</t>
+  </si>
+  <si>
+    <t>X570.573.99,</t>
+  </si>
+  <si>
+    <t>X785.785.99,</t>
+  </si>
+  <si>
+    <t>X196.198.99,</t>
+  </si>
+  <si>
+    <t>X720.724.99,</t>
+  </si>
+  <si>
+    <t>X794.794.99,</t>
+  </si>
+  <si>
+    <t>X229.229.99,</t>
+  </si>
+  <si>
+    <t>X130.136.99,</t>
+  </si>
+  <si>
+    <t>X193.194.99,</t>
+  </si>
+  <si>
+    <t>X295.298.99,</t>
+  </si>
+  <si>
+    <t>X710.719.99)</t>
+  </si>
+  <si>
+    <t>map before</t>
+  </si>
+  <si>
+    <t>map after</t>
   </si>
 </sst>
 </file>
@@ -461,13 +584,12 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,6 +704,17 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -771,7 +904,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="158">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -930,8 +1063,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1077,8 +1212,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="158">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1157,6 +1299,7 @@
     <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1235,6 +1378,7 @@
     <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1568,7 +1712,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3013,7 +3157,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3496,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4211,13 +4355,292 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="95"/>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="92">
+        <v>3</v>
+      </c>
+      <c r="B9" s="92">
+        <v>26</v>
+      </c>
+      <c r="C9" s="92">
+        <f>B9/(B9+B16)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="92">
+        <v>5</v>
+      </c>
+      <c r="B10" s="92">
+        <v>24</v>
+      </c>
+      <c r="C10" s="92">
+        <f t="shared" ref="C10:C12" si="0">B10/(B10+B17)</f>
+        <v>0.18320610687022901</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="92">
+        <v>1</v>
+      </c>
+      <c r="B11" s="92">
+        <v>11</v>
+      </c>
+      <c r="C11" s="92">
+        <f t="shared" si="0"/>
+        <v>9.4017094017094016E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="92">
+        <v>4</v>
+      </c>
+      <c r="B12" s="92">
+        <v>3</v>
+      </c>
+      <c r="C12" s="92">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="92">
+        <v>2</v>
+      </c>
+      <c r="B15" s="92">
+        <v>1857</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="F15" s="91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="92">
+        <v>3</v>
+      </c>
+      <c r="B16" s="92">
+        <v>390</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="92">
+        <v>5</v>
+      </c>
+      <c r="B17" s="92">
+        <v>107</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="92">
+        <v>1</v>
+      </c>
+      <c r="B18" s="92">
+        <v>106</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="92">
+        <v>4</v>
+      </c>
+      <c r="B19" s="92">
+        <v>32</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="F21" s="91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="F32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
